--- a/docs/basedata.xlsx
+++ b/docs/basedata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF0A1C3-4536-43AA-B615-0CDD9A050219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E6AD87-8E7E-49FE-AFB6-10BF20F818B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="账户表" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="321">
   <si>
     <t>系号</t>
   </si>
@@ -936,10 +936,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2qqqqqqq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3ddddddd</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1097,6 +1093,82 @@
   <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtttt</t>
+  </si>
+  <si>
+    <t>06670</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>特朗普</t>
+  </si>
+  <si>
+    <t>214ddff</t>
+  </si>
+  <si>
+    <t>06671</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺贝尔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>32tffsf</t>
+  </si>
+  <si>
+    <t>06672</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>希特勒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t03</t>
+  </si>
+  <si>
+    <t>t04</t>
+  </si>
+  <si>
+    <t>t05</t>
+  </si>
+  <si>
+    <t>t06</t>
+  </si>
+  <si>
+    <t>抽象代数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>复变函数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常微分方程</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学模型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑学</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛函分析</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1500,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C0D8CC-0BCE-4720-AB30-166C5D830DE1}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1630,12 +1702,6 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="2" t="s">
         <v>250</v>
       </c>
@@ -1650,12 +1716,6 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="2" t="s">
         <v>254</v>
       </c>
@@ -1670,164 +1730,201 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>301</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>303</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>266</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{EC55DCB4-EB48-49B9-8856-9D2053E8FEC5}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{E0A7C0E2-7896-4506-9400-2364E9D73416}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1835,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC119CC-7F53-4DE9-A631-E42398B5D4C5}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1969,7 @@
         <v>224</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>225</v>
@@ -1901,7 +1998,7 @@
         <v>231</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>232</v>
@@ -2048,98 +2145,164 @@
         <v>229</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
         <v>1.5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D11" s="2">
         <v>1.5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="2">
         <v>4.5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" s="2">
         <v>1.5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +3015,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2929,7 +3092,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="2">
         <v>6</v>
@@ -2946,7 +3109,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
@@ -2963,7 +3126,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" s="2">
         <v>7</v>
@@ -2977,7 +3140,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
@@ -3007,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0072214-7A08-4D6F-BCAB-E999924F15A9}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3052,7 +3215,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3320,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3165,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3173,7 +3336,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3181,7 +3344,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
